--- a/Documentation/whisker_system/whisker_system_BOM.xlsx
+++ b/Documentation/whisker_system/whisker_system_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t>Column10</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/9175</t>
+  </si>
+  <si>
+    <t>Protoboard</t>
+  </si>
+  <si>
+    <t>4x5</t>
+  </si>
+  <si>
+    <t>Twin</t>
+  </si>
+  <si>
+    <t>8000-45-LF</t>
+  </si>
+  <si>
+    <t>Frys</t>
+  </si>
+  <si>
+    <t>http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw</t>
   </si>
 </sst>
 </file>
@@ -380,7 +398,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +429,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +447,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,13 +479,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -465,8 +496,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -487,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K23" totalsRowShown="0">
+  <autoFilter ref="A1:K23"/>
   <sortState ref="A2:K19">
     <sortCondition ref="A2:A19"/>
     <sortCondition ref="F2:F19"/>
@@ -803,11 +841,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:J14"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,52 +1588,85 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4986181</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="12">
+        <v>12.69</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2</v>
+      </c>
+      <c r="K22" s="9">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I23" s="5">
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J23" s="2">
         <v>40</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K23" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <f>SUM(Table3[Quantity])</f>
-        <v>375</v>
-      </c>
-      <c r="K24" s="7">
+        <v>377</v>
+      </c>
+      <c r="K25" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>75.030000000000015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>100.41000000000001</v>
+      </c>
+    </row>
     <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1756,6 +1827,7 @@
     <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
@@ -1823,11 +1895,12 @@
     <hyperlink ref="H19" r:id="rId63"/>
     <hyperlink ref="H20" r:id="rId64"/>
     <hyperlink ref="G14" r:id="rId65"/>
+    <hyperlink ref="G22" r:id="rId66" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="47" orientation="landscape" r:id="rId66"/>
+  <pageSetup scale="47" orientation="landscape" r:id="rId67"/>
   <tableParts count="1">
-    <tablePart r:id="rId67"/>
+    <tablePart r:id="rId68"/>
   </tableParts>
 </worksheet>
 </file>
